--- a/biology/Médecine/Syndrome_maculaire/Syndrome_maculaire.xlsx
+++ b/biology/Médecine/Syndrome_maculaire/Syndrome_maculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome maculaire est un ensemble de symptômes ayant pour origine une atteinte maculaire. Il peut être aigu (c'est alors une urgence ophtalmologique) ou chronique (c’est-à-dire survenir plus progressivement).
 </t>
@@ -511,7 +523,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Baisse d'acuité visuelle surtout de près
 Métamorphopsies : le patient voit les lignes déformées. Ce symptôme est mis en évidence grâce à la grille d'Amsler.
@@ -549,29 +563,151 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sujet jeune
-Forme aigüe
-La Choriorétinopathie séreuse centrale (CRSC)[1] et l'épithéliopathie rétinienne diffuse (ERD)
+          <t>Sujet jeune</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Forme aigüe</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La Choriorétinopathie séreuse centrale (CRSC) et l'épithéliopathie rétinienne diffuse (ERD)
 Néovaisseaux choroïdiens (NVC)
 NVC du myope fort 62 %
 NVC idiopathique du sujet jeune 17 %
 NVC de la choriorétinite multifocale (CMF) 12 %
 NVC des stries angioïdes 5 %
 NVC post-traumatique (après rupture de la membrane de Bruch)
-NVC post-maladie inflammatoire (toxoplasmose)
-Forme chronique
-Maladie de Best
+NVC post-maladie inflammatoire (toxoplasmose)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Syndrome_maculaire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_maculaire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sujet jeune</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Forme chronique</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maladie de Best
 Maladie de Stargardt
 Dystrophie des cônes
 Sclérose aréolaire centrale
 Rétinoschisis juvénile
-Drusens dominants[2]
+Drusens dominants
 Voir également l'achromatopsie : absence totale de fonctionnement des cônes, donc de la macula, absence totale de vision des couleurs, acuité visuelle réduite, forte photophobie, et nystagmus.
-Sujet âgé
-Forme aiguë
-Dégénérescence maculaire liée à l'âge exsudative avec NV visibles (NVV) ou NV occultes (NVO)
-Forme chronique
-Dégénérescence maculaire liée à l'âge atrophique
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Syndrome_maculaire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_maculaire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sujet âgé</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Forme aiguë</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dégénérescence maculaire liée à l'âge exsudative avec NV visibles (NVV) ou NV occultes (NVO)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Syndrome_maculaire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_maculaire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sujet âgé</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Forme chronique</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Dégénérescence maculaire liée à l'âge atrophique
 Dystrophie pseudovitelliforme de l'adulte
 Dystrophie maculaire réticulée
 membrane épirétinienne (MER)
